--- a/data/financial_statements/sofp/CBRE.xlsx
+++ b/data/financial_statements/sofp/CBRE.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -140,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -195,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -505,144 +616,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1223000000</v>
+        <v>1223051000</v>
       </c>
       <c r="C2">
-        <v>1331000000</v>
+        <v>1330716000</v>
       </c>
       <c r="D2">
-        <v>1793000000</v>
+        <v>1792629000</v>
       </c>
       <c r="E2">
-        <v>2540000000</v>
+        <v>2539781000</v>
       </c>
       <c r="F2">
-        <v>2876000000</v>
+        <v>2876122000</v>
       </c>
       <c r="G2">
         <v>2256809000</v>
@@ -748,8 +859,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>6146669000</v>
@@ -870,8 +981,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="AD4">
         <v>2796000</v>
@@ -905,8 +1016,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>534379000</v>
@@ -1027,8 +1138,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>8589957000</v>
@@ -1149,23 +1260,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1761000000</v>
+        <v>768445000</v>
       </c>
       <c r="C7">
-        <v>1819000000</v>
+        <v>778535000</v>
       </c>
       <c r="D7">
-        <v>1823000000</v>
+        <v>792735000</v>
       </c>
       <c r="E7">
-        <v>1862000000</v>
+        <v>816092000</v>
       </c>
       <c r="F7">
-        <v>1696000000</v>
+        <v>722646000</v>
       </c>
       <c r="G7">
         <v>741946000</v>
@@ -1271,8 +1382,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1461287000</v>
@@ -1393,8 +1504,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>46001000</v>
@@ -1434,23 +1545,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>6807000000</v>
+        <v>6807106000</v>
       </c>
       <c r="C10">
-        <v>7051000000</v>
+        <v>7051460000</v>
       </c>
       <c r="D10">
-        <v>7316000000</v>
+        <v>7315630000</v>
       </c>
       <c r="E10">
-        <v>7405000000</v>
+        <v>7404602000</v>
       </c>
       <c r="F10">
-        <v>5220000000</v>
+        <v>5220389000</v>
       </c>
       <c r="G10">
         <v>5237277000</v>
@@ -1556,8 +1667,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>155945000</v>
@@ -1648,23 +1759,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>1737000000</v>
+        <v>1156147000</v>
       </c>
       <c r="C12">
-        <v>1771000000</v>
+        <v>1060657000</v>
       </c>
       <c r="D12">
-        <v>1585000000</v>
+        <v>1004003000</v>
       </c>
       <c r="E12">
-        <v>1407000000</v>
+        <v>1011369000</v>
       </c>
       <c r="F12">
-        <v>1889000000</v>
+        <v>983459000</v>
       </c>
       <c r="G12">
         <v>1019458000</v>
@@ -1770,8 +1881,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>11625370000</v>
@@ -1892,23 +2003,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>20215000000</v>
+        <v>20215330000</v>
       </c>
       <c r="C14">
-        <v>20439000000</v>
+        <v>20438670000</v>
       </c>
       <c r="D14">
-        <v>21143000000</v>
+        <v>21143150000</v>
       </c>
       <c r="E14">
-        <v>22073000000</v>
+        <v>22073490000</v>
       </c>
       <c r="F14">
-        <v>19730000000</v>
+        <v>19730360000</v>
       </c>
       <c r="G14">
         <v>18458350000</v>
@@ -2014,8 +2125,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1497925000</v>
@@ -2136,8 +2247,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2720466000</v>
@@ -2258,8 +2369,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2701039000</v>
@@ -2380,8 +2491,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1724000000</v>
@@ -2502,8 +2613,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>119930000</v>
@@ -2606,8 +2717,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>314299000</v>
@@ -2671,8 +2782,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>205473000</v>
@@ -2793,8 +2904,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>7755653000</v>
@@ -2915,23 +3026,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>2599000000</v>
+        <v>1476929000</v>
       </c>
       <c r="C23">
-        <v>2659000000</v>
+        <v>1503494000</v>
       </c>
       <c r="D23">
-        <v>2702000000</v>
+        <v>1526212000</v>
       </c>
       <c r="E23">
-        <v>2728000000</v>
+        <v>1538123000</v>
       </c>
       <c r="F23">
-        <v>2950000000</v>
+        <v>1843849000</v>
       </c>
       <c r="G23">
         <v>1854327000</v>
@@ -3037,8 +3148,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>314000000</v>
@@ -3078,8 +3189,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AD25">
         <v>85998000</v>
@@ -3113,23 +3224,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>262000000</v>
+        <v>284123000</v>
       </c>
       <c r="C26">
-        <v>239000000</v>
+        <v>269717000</v>
       </c>
       <c r="D26">
-        <v>292000000</v>
+        <v>310104000</v>
       </c>
       <c r="E26">
-        <v>393000000</v>
+        <v>405258000</v>
       </c>
       <c r="F26">
-        <v>196000000</v>
+        <v>156197000</v>
       </c>
       <c r="G26">
         <v>145928000</v>
@@ -3235,8 +3346,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F27">
         <v>402519000</v>
@@ -3252,23 +3363,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>6520000000</v>
+        <v>993166000</v>
       </c>
       <c r="C28">
-        <v>6583000000</v>
+        <v>1051637000</v>
       </c>
       <c r="D28">
-        <v>6758000000</v>
+        <v>1129355000</v>
       </c>
       <c r="E28">
-        <v>7575000000</v>
+        <v>1235562000</v>
       </c>
       <c r="F28">
-        <v>6252000000</v>
+        <v>865150000</v>
       </c>
       <c r="G28">
         <v>865430000</v>
@@ -3374,8 +3485,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>3820033000</v>
@@ -3496,23 +3607,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>11576000000</v>
+        <v>11575690000</v>
       </c>
       <c r="C30">
-        <v>11544000000</v>
+        <v>11543690000</v>
       </c>
       <c r="D30">
-        <v>11860000000</v>
+        <v>11860330000</v>
       </c>
       <c r="E30">
-        <v>12714000000</v>
+        <v>12714370000</v>
       </c>
       <c r="F30">
-        <v>11330000000</v>
+        <v>11732200000</v>
       </c>
       <c r="G30">
         <v>10737680000</v>
@@ -3618,8 +3729,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3740,23 +3851,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>3000000</v>
+        <v>3171000</v>
       </c>
       <c r="C32">
-        <v>3000000</v>
+        <v>3221000</v>
       </c>
       <c r="D32">
-        <v>3000000</v>
+        <v>3296000</v>
       </c>
       <c r="E32">
-        <v>3000000</v>
+        <v>3329000</v>
       </c>
       <c r="F32">
-        <v>3000000</v>
+        <v>3346000</v>
       </c>
       <c r="G32">
         <v>3357000</v>
@@ -3862,23 +3973,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>9156000000</v>
+        <v>9155739000</v>
       </c>
       <c r="C33">
-        <v>9084000000</v>
+        <v>9084358000</v>
       </c>
       <c r="D33">
-        <v>8759000000</v>
+        <v>8758928000</v>
       </c>
       <c r="E33">
-        <v>8367000000</v>
+        <v>8366631000</v>
       </c>
       <c r="F33">
-        <v>7675000000</v>
+        <v>7674639000</v>
       </c>
       <c r="G33">
         <v>7238896000</v>
@@ -3984,23 +4095,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>7936000000</v>
+        <v>8639645000</v>
       </c>
       <c r="C34">
-        <v>8136000000</v>
+        <v>8894984000</v>
       </c>
       <c r="D34">
-        <v>8470000000</v>
+        <v>9282824000</v>
       </c>
       <c r="E34">
-        <v>8528000000</v>
+        <v>9359116000</v>
       </c>
       <c r="F34">
-        <v>7963000000</v>
+        <v>7998161000</v>
       </c>
       <c r="G34">
         <v>7720676000</v>
@@ -4106,23 +4217,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>7936000000</v>
+        <v>8639644000</v>
       </c>
       <c r="C35">
-        <v>8136000000</v>
+        <v>8894984000</v>
       </c>
       <c r="D35">
-        <v>8470000000</v>
+        <v>9282825000</v>
       </c>
       <c r="E35">
-        <v>8528000000</v>
+        <v>9359117000</v>
       </c>
       <c r="F35">
-        <v>7963000000</v>
+        <v>7998160000</v>
       </c>
       <c r="G35">
         <v>7720676000</v>
@@ -4228,8 +4339,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>20215330000</v>
@@ -4350,8 +4461,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>317055000</v>
@@ -4472,8 +4583,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>1832538000</v>
@@ -4594,23 +4705,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>3100000000</v>
+        <v>1977878000</v>
       </c>
       <c r="C39">
-        <v>2950000000</v>
+        <v>1794778000</v>
       </c>
       <c r="D39">
-        <v>2580000000</v>
+        <v>1404583000</v>
       </c>
       <c r="E39">
-        <v>1769000000</v>
+        <v>579342000</v>
       </c>
       <c r="F39">
-        <v>1727000000</v>
+        <v>620727000</v>
       </c>
       <c r="G39">
         <v>-401301000</v>
@@ -4716,23 +4827,23 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B40">
-        <v>4323000000</v>
+        <v>3200929000</v>
       </c>
       <c r="C40">
-        <v>4281000000</v>
+        <v>3125494000</v>
       </c>
       <c r="D40">
-        <v>4373000000</v>
+        <v>3197212000</v>
       </c>
       <c r="E40">
-        <v>4309000000</v>
+        <v>3119123000</v>
       </c>
       <c r="F40">
-        <v>4603000000</v>
+        <v>3496849000</v>
       </c>
       <c r="G40">
         <v>1855508000</v>
